--- a/Documentation/Test Cases/TestCases.xlsx
+++ b/Documentation/Test Cases/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\School\CST-341\OtherFileNonsense\Workspace\SpringCLC\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\School\CST-341\OtherFileNonsense\Workspace\SpringCLC\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953AC0D-8749-427D-922F-30D431C8F9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B735F7F-4887-419C-BD19-76EE5E8DACB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="11" xr2:uid="{59774C4E-BB0C-46C8-9D53-717A2C046DC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{59774C4E-BB0C-46C8-9D53-717A2C046DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Use" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="193">
   <si>
     <t>Project Name:</t>
   </si>
@@ -689,6 +689,26 @@
   </si>
   <si>
     <t>Error message states "There was a problem with [updating] your song". This means the operation is passing the logical checks and not throwing  any exceptions- including SQL- but is failing as an action with no result</t>
+  </si>
+  <si>
+    <t>Bootstrap Functionality</t>
+  </si>
+  <si>
+    <t>Resize window to be sure that elements re-size and scale in a coherent way</t>
+  </si>
+  <si>
+    <t>1. Open up the module display
+2. Right-Click to inspect element
+3. Resize window and observe any abnormalites</t>
+  </si>
+  <si>
+    <t>Elements scale and move around in an acceptable way on common device aspect ratios</t>
+  </si>
+  <si>
+    <t>Elements scale and move around in an acceptable way on common device aspect ratios on album screen. Library screen displays oddly on Michael's computer</t>
+  </si>
+  <si>
+    <t>The issue is not able to be replicated on other devices and as such is considered unique to Michael's device</t>
   </si>
 </sst>
 </file>
@@ -1319,28 +1339,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DD4BE0-41ED-4DDC-9D5D-6834A0538D83}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1382,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1382,7 +1402,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1398,19 +1418,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1439,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1448,7 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1437,7 +1457,7 @@
       </c>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1449,7 +1469,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1508,6 +1528,35 @@
       </c>
       <c r="I11" s="13" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1524,28 +1573,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE631C-5204-4326-B681-9A75BB27D9DE}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1616,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1587,7 +1636,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1603,19 +1652,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1674,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1685,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1656,7 +1705,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1688,7 +1737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1717,7 +1766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -1746,7 +1795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1774,6 +1823,36 @@
       <c r="I13" s="13" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1792,22 +1871,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="23" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="3" max="3" width="48.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -1829,7 +1908,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1849,7 +1928,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1865,19 +1944,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1966,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1898,7 +1977,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1985,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1918,7 +1997,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1950,17 +2029,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -1989,7 +2068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -2018,7 +2097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>3</v>
       </c>
@@ -2047,7 +2126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -2089,26 +2168,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B27E67-9BC1-441B-B114-441632180206}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="56.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="44.44140625" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -2130,7 +2209,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2150,7 +2229,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -2166,19 +2245,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2267,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2278,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2219,7 +2298,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2251,7 +2330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2280,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -2310,7 +2389,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="163.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -2342,15 +2421,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -2371,22 +2450,22 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +2487,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2428,7 +2507,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -2444,19 +2523,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -2465,7 +2544,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -2474,7 +2553,7 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2483,7 +2562,7 @@
       </c>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2495,7 +2574,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2556,7 +2635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -2605,22 +2684,22 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -2642,7 +2721,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2662,7 +2741,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -2678,19 +2757,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -2699,7 +2778,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2787,7 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2717,7 +2796,7 @@
       </c>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2729,7 +2808,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2761,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2790,7 +2869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -2819,7 +2898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -2851,7 +2930,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>3</v>
       </c>
@@ -2898,28 +2977,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360C6E5-DBEE-48B2-952E-1CC4A4A00D48}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -2941,7 +3020,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2961,7 +3040,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -2977,19 +3056,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -2997,7 +3076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -3005,7 +3084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -3013,7 +3092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3025,7 +3104,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -3057,7 +3136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -3083,6 +3162,35 @@
         <v>34</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3100,25 +3208,25 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.77734375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -3140,7 +3248,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3160,7 +3268,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3176,19 +3284,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3304,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3320,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3224,7 +3332,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -3285,7 +3393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -3314,7 +3422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -3360,22 +3468,22 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.77734375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -3397,7 +3505,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3417,7 +3525,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3433,19 +3541,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -3453,7 +3561,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3481,7 +3589,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -3542,7 +3650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -3574,7 +3682,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3590,28 +3698,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1957E8-C9CC-4BCE-A884-8F988729911F}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3741,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3653,7 +3761,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3669,19 +3777,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -3689,7 +3797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -3697,7 +3805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -3705,7 +3813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3717,7 +3825,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -3749,7 +3857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -3778,7 +3886,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -3807,7 +3915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -3836,7 +3944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -3863,6 +3971,38 @@
       </c>
       <c r="I14" s="13" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3883,22 +4023,22 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -3920,7 +4060,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3940,7 +4080,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3956,19 +4096,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +4116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -3984,7 +4124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +4132,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4004,7 +4144,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -4036,7 +4176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -4065,7 +4205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -4094,7 +4234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -4123,7 +4263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -4170,22 +4310,22 @@
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="54.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="51.33203125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="51.28515625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
@@ -4207,7 +4347,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -4227,7 +4367,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -4243,19 +4383,19 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -4271,7 +4411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -4291,7 +4431,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -4323,7 +4463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -4352,7 +4492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -4384,7 +4524,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -4416,7 +4556,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
